--- a/Code/ProjectReporter/Helper/ketijieduanhuafen.xlsx
+++ b/Code/ProjectReporter/Helper/ketijieduanhuafen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>阶段经费(万)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>课题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -412,6 +436,91 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
